--- a/data/trans_camb/LAWTONB_2R3-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/LAWTONB_2R3-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-9.702498279946944</v>
+        <v>-7.907492842532831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.74074997195274</v>
+        <v>-9.757764134599116</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.588275129951449</v>
+        <v>-6.665039565062059</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10.33863144847443</v>
+        <v>9.413598684428754</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.912513448915384</v>
+        <v>0.6618395425610207</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.530458701953355</v>
+        <v>5.53517354951</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>6.069205972370614</v>
+        <v>6.313789278078012</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.35490532523176</v>
+        <v>1.630618738418506</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.841527108914063</v>
+        <v>7.085271637824865</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>25.0778368673267</v>
+        <v>26.06568126486359</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.06460260062274</v>
+        <v>22.02870561465894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.94209037277779</v>
+        <v>25.02085763407288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47.63421808623555</v>
+        <v>48.56667692078712</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>40.428784919969</v>
+        <v>41.43108862048816</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>35.1360829081359</v>
+        <v>36.39387043254086</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>32.86432226874964</v>
+        <v>32.19977828159426</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>27.62144689982068</v>
+        <v>26.58533300392185</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>28.34408232274349</v>
+        <v>27.07299687296908</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.4003125051793149</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8366938513914141</v>
+        <v>0.8366938513914145</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>1.692528350217172</v>
@@ -769,7 +769,7 @@
         <v>0.9020598134143997</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.060443788118924</v>
+        <v>1.060443788118925</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3956680537927982</v>
+        <v>-0.3610831209286967</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5116794576203899</v>
+        <v>-0.4446997055274148</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2211174106589113</v>
+        <v>-0.2648049310846327</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.290177879746556</v>
+        <v>0.2466121997507204</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05216719698915911</v>
+        <v>-0.06745056129877827</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1547832411924268</v>
+        <v>0.1517628088931594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1986482480354947</v>
+        <v>0.2542477395851588</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.04720239882744481</v>
+        <v>0.04482101815138458</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2180769220581004</v>
+        <v>0.2660651496797216</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.977206269336395</v>
+        <v>3.667103311725058</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.193574341123828</v>
+        <v>3.876239652961257</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.594282387408397</v>
+        <v>3.46014432854887</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.422781952470572</v>
+        <v>6.669140731190701</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.459241065631788</v>
+        <v>5.49125954805356</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.743252697839988</v>
+        <v>4.595997904293145</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.293985553492428</v>
+        <v>3.028018853389914</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.762176784093436</v>
+        <v>2.526305259116498</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.968693932475984</v>
+        <v>2.921947711272724</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>11.79445540753838</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>19.56795586328298</v>
+        <v>19.56795586328296</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>14.26605408537003</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.147574596060756</v>
+        <v>-3.647915483139589</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.70669687605422</v>
+        <v>-12.22678787418989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.30188147161013</v>
+        <v>-10.25577536398472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.625094598339615</v>
+        <v>6.175681131287142</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04591574689327328</v>
+        <v>-0.0768766855264793</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>9.728298154233647</v>
+        <v>10.20627676167837</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.899209617385661</v>
+        <v>5.581253385430853</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.176406014739806</v>
+        <v>-2.467513228759912</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.653684813514821</v>
+        <v>4.895720197771877</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.02692940603504</v>
+        <v>23.70288227601548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.705206647106432</v>
+        <v>7.444602082288551</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.019757564711787</v>
+        <v>10.03092614840926</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>30.79148469630682</v>
+        <v>30.85755425290348</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.70775325851167</v>
+        <v>23.37982264042594</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>28.16370659962367</v>
+        <v>28.36862728281134</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>23.32884482917238</v>
+        <v>22.98887409689901</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.06438340200922</v>
+        <v>13.94863047541843</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>19.17362927783989</v>
+        <v>19.03018081111601</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.8674343248613201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.439143732938629</v>
+        <v>1.439143732938628</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1.122440329607634</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2734057918602649</v>
+        <v>-0.2953826503872338</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7301633112687985</v>
+        <v>-0.7009810508645919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.6111992172510181</v>
+        <v>-0.6014201953988425</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3364491725253771</v>
+        <v>0.2471199476030284</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02685920048942025</v>
+        <v>-0.03794072222071815</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.479130739883833</v>
+        <v>0.5115610891748921</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.281561438110723</v>
+        <v>0.3259386049960817</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.168208443444748</v>
+        <v>-0.169835396470877</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2409322633677469</v>
+        <v>0.2786678943106778</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.319843575251022</v>
+        <v>4.656856344081507</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.270132962767927</v>
+        <v>1.774566465573933</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.589536032156415</v>
+        <v>1.749739320368549</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.490165781227893</v>
+        <v>3.546534422112997</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.597670633093701</v>
+        <v>2.710402733562738</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.331177141701021</v>
+        <v>3.433520355047397</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.507740018588769</v>
+        <v>2.536908566967961</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.344132850983433</v>
+        <v>1.535304387204698</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.206405826425186</v>
+        <v>2.240385820880698</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-8.711236583721432</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>12.93132969179487</v>
+        <v>12.93132969179488</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>8.000197712853172</v>
@@ -1092,7 +1092,7 @@
         <v>-4.017735083773507</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>12.81931740244635</v>
+        <v>12.81931740244636</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8676335317019384</v>
+        <v>1.565576409547714</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.451073944827134</v>
+        <v>-7.566137241239954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.110431551004661</v>
+        <v>3.050155575929402</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-11.68420130453941</v>
+        <v>-9.547618954798057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-20.22709395796492</v>
+        <v>-20.44919557284777</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.691290956778702</v>
+        <v>-0.07491620351925329</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.609041205429421</v>
+        <v>-2.178097419391027</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-13.00552284277844</v>
+        <v>-13.32062397705459</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.085791670541324</v>
+        <v>3.445424529393949</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>29.36761568224638</v>
+        <v>30.3101143217693</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.64207900517633</v>
+        <v>13.46615654998905</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24.20874171823747</v>
+        <v>24.36916901884855</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.49806813715002</v>
+        <v>17.39504178575201</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.753372716786949</v>
+        <v>2.723280800257333</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.72811720175729</v>
+        <v>23.29594924921837</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>17.83808818116396</v>
+        <v>17.89243294199212</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.567766222317144</v>
+        <v>3.964238344023976</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>20.48507850462695</v>
+        <v>20.20325947123136</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.4326702050892736</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6422740349264768</v>
+        <v>0.6422740349264772</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.4966048632711087</v>
@@ -1197,7 +1197,7 @@
         <v>-0.2493971841135044</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7957472545513393</v>
+        <v>0.7957472545513397</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.04215289867202489</v>
+        <v>-0.09195891104960842</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5322182613893058</v>
+        <v>-0.5259400139561856</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1238341144331494</v>
+        <v>0.111143576290039</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4402582650662755</v>
+        <v>-0.3749885517806635</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7817966024593048</v>
+        <v>-0.7818188905189214</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02112982437470737</v>
+        <v>-0.01669934008080251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1122948308965476</v>
+        <v>-0.1144667680493191</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6153949879896234</v>
+        <v>-0.5985618746796638</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1171254954083607</v>
+        <v>0.1494101577460019</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>6.447791893825259</v>
+        <v>6.7843820410921</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>3.343400453650545</v>
+        <v>3.143751029813195</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>6.267661779080222</v>
+        <v>6.233696328848003</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.183932838678795</v>
+        <v>1.246033599631669</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3213691260568284</v>
+        <v>0.2437561374347209</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.858914222645229</v>
+        <v>1.770759257611714</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.586734989397817</v>
+        <v>1.600316123447468</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4819477308999821</v>
+        <v>0.3806917410678959</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.816181937411836</v>
+        <v>1.862425709892437</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-4.726552301213416</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.560002972245822</v>
+        <v>-1.560002972245819</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>10.11839771382924</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.267753336928948</v>
+        <v>7.00394557890982</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4515328930103639</v>
+        <v>2.462838483390247</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.454572337639707</v>
+        <v>1.205707290706392</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-10.75416229745432</v>
+        <v>-9.346218515088635</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-18.51744952284701</v>
+        <v>-18.05329634796343</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.92000616526739</v>
+        <v>-13.27038881651612</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05152103804014325</v>
+        <v>0.6224344764776505</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-6.041169677473343</v>
+        <v>-7.470803353173208</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.438747531774471</v>
+        <v>-4.189358331923219</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>29.84771753577694</v>
+        <v>32.25074164049042</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>23.12874801452037</v>
+        <v>23.51149582092311</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.15160631839321</v>
+        <v>19.9272463218583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.20393027049542</v>
+        <v>17.94516840607759</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.819350037563742</v>
+        <v>8.929073357170466</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.977340184199832</v>
+        <v>8.323197013802424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>20.17085885852626</v>
+        <v>20.68379809418932</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>11.97511921638502</v>
+        <v>12.19545628961055</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>11.40090088601509</v>
+        <v>11.74427661856241</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1973083252012534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.06512179579262894</v>
+        <v>-0.06512179579262883</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.6150364848041338</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2878803640309666</v>
+        <v>0.460384721588241</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2483261461508628</v>
+        <v>0.00223783651378414</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.08923079078131235</v>
+        <v>-0.043066275139494</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3580665261220043</v>
+        <v>-0.3085682231940942</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6017726415404321</v>
+        <v>-0.6038430943449864</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4001904505695957</v>
+        <v>-0.4044271136557036</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01178694592124923</v>
+        <v>-0.002787783349823403</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.292481066687925</v>
+        <v>-0.3427677790234414</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2027801655316991</v>
+        <v>-0.1979947874106413</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>13.29857672894451</v>
+        <v>15.26831713763962</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8.912611938498365</v>
+        <v>9.822085699855784</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9.114511444925629</v>
+        <v>8.13914729554582</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.000014449171332</v>
+        <v>1.119153513160997</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5197948636822587</v>
+        <v>0.6088147341027627</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6200235000248355</v>
+        <v>0.5261851809942001</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.669127701280372</v>
+        <v>1.811275662960812</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.072501364483491</v>
+        <v>1.015379136811096</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9797484585375884</v>
+        <v>1.040084377162777</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-16.69540826711016</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-5.449123866646705</v>
+        <v>-5.449123866646713</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.771010798683714</v>
@@ -1511,7 +1511,7 @@
         <v>5.812324537015717</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-6.239820912956021</v>
+        <v>-6.239820912956018</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-3.013954643083289</v>
@@ -1520,7 +1520,7 @@
         <v>-4.573952221484944</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-5.771074875487059</v>
+        <v>-5.771074875487053</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-26.11058113093323</v>
+        <v>-24.97565357375466</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-35.34601640745637</v>
+        <v>-33.61047099340965</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-23.86843953285314</v>
+        <v>-24.20105845346867</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-20.92822784875505</v>
+        <v>-21.25479909048124</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-15.02026519873167</v>
+        <v>-14.32805925478815</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-23.83702975097482</v>
+        <v>-22.17355316378177</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-16.96235434362888</v>
+        <v>-16.94632398276871</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-19.52732691942635</v>
+        <v>-18.39215696601783</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-19.86549425406802</v>
+        <v>-17.79525910800124</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.00053131418464</v>
+        <v>17.96583773768283</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.06816259299726009</v>
+        <v>0.143061356761926</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.43177277585253</v>
+        <v>12.35149200018906</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.54396259806147</v>
+        <v>16.48635837576274</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>25.92755818837681</v>
+        <v>26.21846238974609</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.558688206458884</v>
+        <v>8.827544864289445</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.60430931448074</v>
+        <v>11.58052195934405</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.335045768722477</v>
+        <v>8.95179082738809</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.398291224664373</v>
+        <v>6.563291700586829</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.6304817899732401</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2057795361612914</v>
+        <v>-0.2057795361612917</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05786228694089939</v>
@@ -1616,7 +1616,7 @@
         <v>0.1898996835052592</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2038668021638451</v>
+        <v>-0.203866802163845</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1043191323469949</v>
@@ -1625,7 +1625,7 @@
         <v>-0.1583138380124368</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.1997487006322261</v>
+        <v>-0.1997487006322259</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7045114147972917</v>
+        <v>-0.729728919461337</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8962993798116932</v>
+        <v>-0.8941072793831226</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6245507562823517</v>
+        <v>-0.6153986604378279</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.5211225575607257</v>
+        <v>-0.5309425121028672</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.351170618008531</v>
+        <v>-0.3624208332098587</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5483136485309933</v>
+        <v>-0.5076986299728475</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.4719243981018255</v>
+        <v>-0.4674437653007277</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5161461759679288</v>
+        <v>-0.5047247152494971</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.4936697582101259</v>
+        <v>-0.4770002053560019</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.263474184346729</v>
+        <v>1.240765529047493</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.115856564044848</v>
+        <v>0.1469549801678104</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7014945875878242</v>
+        <v>0.9084091293981456</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8354888850511463</v>
+        <v>0.8429001842395363</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.333916974523623</v>
+        <v>1.337720785972479</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5094492890431664</v>
+        <v>0.4998435961129999</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5044849718701949</v>
+        <v>0.5642408673426044</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.455889473498043</v>
+        <v>0.4407969683660029</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.2272270729735732</v>
+        <v>0.3498544703659635</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>12.87466194357461</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>20.1459291143752</v>
+        <v>20.14592911437519</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>10.7332742524028</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.275674811784938</v>
+        <v>-7.13848428180934</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-10.6764243003419</v>
+        <v>-10.6631851070431</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.506395500217495</v>
+        <v>-0.02625258435077745</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.820419579126614</v>
+        <v>-3.32757468178312</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.949842255477926</v>
+        <v>-3.010541174614395</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>6.863640713800454</v>
+        <v>7.354948681790121</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.6147485643963885</v>
+        <v>1.002201942866102</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-1.658129113838654</v>
+        <v>-1.552226430376174</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>7.778228668234015</v>
+        <v>7.470409081600025</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>27.21461409312894</v>
+        <v>27.03707511599801</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>20.58255148834883</v>
+        <v>20.64539580289885</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24.84865936827725</v>
+        <v>26.1377288909072</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25.14559445638714</v>
+        <v>25.10749364058755</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>29.0879630807964</v>
+        <v>28.99568593470014</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>30.91573930608086</v>
+        <v>30.42317600276878</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>20.95720784517279</v>
+        <v>20.36741812189284</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>20.32819970158937</v>
+        <v>21.43878358003823</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>25.71325418220373</v>
+        <v>25.03325877338285</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.7713585759470398</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.207001415718719</v>
+        <v>1.207001415718718</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6232683897308209</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2182406402749736</v>
+        <v>-0.3280469739096118</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4139772678227149</v>
+        <v>-0.4214266089140885</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.08452533144293584</v>
+        <v>-0.04402864491399923</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1772960371297037</v>
+        <v>-0.1542302129316324</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.129749783998575</v>
+        <v>-0.1540834552093885</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2766487601057084</v>
+        <v>0.232329285939981</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.02945051721458619</v>
+        <v>0.04720320500239536</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.08897339517595591</v>
+        <v>-0.09262886072272436</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.3128929164408514</v>
+        <v>0.3020832410435355</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.620031778175215</v>
+        <v>2.454573462855823</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.916313434372137</v>
+        <v>2.03661489258733</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>2.77569828085717</v>
+        <v>2.660505334470064</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.563462577595672</v>
+        <v>2.642148860012121</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.990620676277771</v>
+        <v>2.907332820059247</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.579094276498489</v>
+        <v>3.235130001229827</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.6676192909696</v>
+        <v>1.679280586092157</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1.540089081190027</v>
+        <v>1.706451744600545</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.300832845306701</v>
+        <v>2.140344942023546</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>9.161216864964022</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.463888911524501</v>
+        <v>1.4638889115245</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>10.3369453047132</v>
@@ -1948,7 +1948,7 @@
         <v>12.59888079528261</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>8.034641744381798</v>
+        <v>8.034641744381801</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>4.960590308188014</v>
+        <v>4.651703145457508</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>0.7834364693436267</v>
+        <v>0.5469263799754145</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.725890807078693</v>
+        <v>-5.994197330590798</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.2923304788808471</v>
+        <v>0.7715185871442636</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>5.284706175419789</v>
+        <v>5.095588167126508</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>5.539478171854128</v>
+        <v>5.702127193573279</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>5.538330073278786</v>
+        <v>5.460331545879669</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>5.246717726092616</v>
+        <v>6.22496273118291</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.273267836398572</v>
+        <v>2.220970026770441</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>25.28826893813935</v>
+        <v>24.57657037331336</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>18.52672809931903</v>
+        <v>17.93433728734264</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.75566412479535</v>
+        <v>8.516383409482017</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.88687743864766</v>
+        <v>19.95650129573189</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>25.54591467705303</v>
+        <v>24.78961219020999</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>22.51129759648649</v>
+        <v>21.79545192841397</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>19.27715919712416</v>
+        <v>19.03289438362373</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>19.12127857995997</v>
+        <v>19.40613637652827</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>13.47738708514309</v>
+        <v>13.3318445094273</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>1.11235782718601</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.1777458511098659</v>
+        <v>0.1777458511098657</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.8058713642125405</v>
@@ -2053,7 +2053,7 @@
         <v>1.183366025527044</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.7546640231045609</v>
+        <v>0.7546640231045613</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3064888778006151</v>
+        <v>0.2606332752398939</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.007904092397202868</v>
+        <v>0.007908170321021908</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.5264028671116902</v>
+        <v>-0.4888310791973581</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.003824098398782327</v>
+        <v>-0.01347625658682894</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2434244985411173</v>
+        <v>0.2557074303886049</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2575697865155507</v>
+        <v>0.2596164803899426</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3790935309822664</v>
+        <v>0.406930396367908</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.3644939188903108</v>
+        <v>0.4338256734966424</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.1728641928496651</v>
+        <v>0.1799648150366717</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>5.29315888495953</v>
+        <v>4.962728249609113</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.929707672557489</v>
+        <v>4.067880341759734</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.919671658751665</v>
+        <v>1.855407759903436</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.37518370869472</v>
+        <v>2.244330423862576</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.942261728234612</v>
+        <v>3.10337259246377</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.581828783154375</v>
+        <v>2.463570958185704</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>2.412673629061113</v>
+        <v>2.348991681114583</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>2.524110733466987</v>
+        <v>2.463192288855515</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.844931487274022</v>
+        <v>1.813848633560337</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-3.863392865058679</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-8.205935748723705</v>
+        <v>-8.205935748723704</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-2.939692976051453</v>
@@ -2162,7 +2162,7 @@
         <v>-4.153853981648767</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.275142742910854</v>
+        <v>-2.275142742910852</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-14.10719311031803</v>
+        <v>-13.72286795546084</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-11.75833226534398</v>
+        <v>-13.28253690498435</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-16.11766252283129</v>
+        <v>-16.27030240959144</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-12.3891091939918</v>
+        <v>-11.85696888300474</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-13.64470888810296</v>
+        <v>-13.32082149854182</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.345926491210689</v>
+        <v>-6.126443868240761</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-10.48773775914581</v>
+        <v>-10.58809062538533</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-10.67228515936586</v>
+        <v>-10.62579362894028</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-8.457607201500956</v>
+        <v>-8.56388772032604</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.425434936727746</v>
+        <v>4.485120925879274</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>5.054147951725143</v>
+        <v>4.679181807498082</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.946350752326128</v>
+        <v>-0.744564041627096</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>5.570584651569997</v>
+        <v>7.403564025269915</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.934598467224379</v>
+        <v>4.498056976646411</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>10.39771311993081</v>
+        <v>10.96588562400505</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.265057197449896</v>
+        <v>2.762458715306251</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.91715410400242</v>
+        <v>2.307559524984947</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.541476448404988</v>
+        <v>3.499495799464836</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.2351186908343679</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.499397534162385</v>
+        <v>-0.4993975341623849</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.1424230553751564</v>
@@ -2267,7 +2267,7 @@
         <v>-0.2201976290352057</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1206063188352069</v>
+        <v>-0.1206063188352067</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.690013380671692</v>
+        <v>-0.6822374394144154</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.5783555748805006</v>
+        <v>-0.6052934363837801</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.729847351226079</v>
+        <v>-0.7354590623030394</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.491525942938184</v>
+        <v>-0.4602997475439173</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.5373712404048331</v>
+        <v>-0.5242724804234563</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2809807575538181</v>
+        <v>-0.2485489471845779</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4864008591472526</v>
+        <v>-0.4724017919082577</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.4927178241090316</v>
+        <v>-0.4899081941339565</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.3570076021216064</v>
+        <v>-0.3675879342888952</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4507600412164757</v>
+        <v>0.4323874013697412</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4291142850003631</v>
+        <v>0.4226612504527185</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1329647365334133</v>
+        <v>-0.0381903089444617</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.3840273943501951</v>
+        <v>0.5143212642663788</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.3434453947470274</v>
+        <v>0.2919080608691269</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.684573751040754</v>
+        <v>0.7203225147777055</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1519448905176832</v>
+        <v>0.1854430449116286</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1327031954054693</v>
+        <v>0.1630265323910642</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2518822887554772</v>
+        <v>0.2541612791827981</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>2.198212475854908</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.119495704087222</v>
+        <v>3.119495704087225</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>7.579388386445096</v>
@@ -2367,7 +2367,7 @@
         <v>4.97559861583709</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>9.839144031445318</v>
+        <v>9.839144031445324</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>7.710542573483931</v>
@@ -2376,7 +2376,7 @@
         <v>3.742997347620605</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>6.783387677473551</v>
+        <v>6.783387677473546</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>3.269678676857578</v>
+        <v>3.253903102736424</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.455752200611404</v>
+        <v>-1.549431662688486</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.7319676274363424</v>
+        <v>-0.5962657860921808</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.822864432517094</v>
+        <v>3.025810631489767</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.8487689946312543</v>
+        <v>0.1678594216230788</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5.954303907286015</v>
+        <v>6.092705086890248</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>4.37881815227038</v>
+        <v>4.375523438114011</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.7534348163112708</v>
+        <v>0.6518184049451039</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>4.063670927537958</v>
+        <v>3.984299124841599</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>12.68168207364756</v>
+        <v>12.50360381788814</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>5.924891877809184</v>
+        <v>6.301084606281526</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.594454459049803</v>
+        <v>6.538401941744231</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>12.01414398918661</v>
+        <v>12.18031134595848</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>9.759360042541935</v>
+        <v>9.450557711491102</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>13.19661271789989</v>
+        <v>13.44921351203563</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>11.08838024629557</v>
+        <v>10.74660718321247</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>6.924027314109709</v>
+        <v>6.708595072589459</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>9.47428636130406</v>
+        <v>9.632644619860791</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1708386757543967</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.242438126869664</v>
+        <v>0.2424381268696642</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.4076493792774134</v>
@@ -2472,7 +2472,7 @@
         <v>0.2676073033685592</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.5291879440051974</v>
+        <v>0.5291879440051978</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.477333721330285</v>
@@ -2481,7 +2481,7 @@
         <v>0.231716359236941</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.4199366844104486</v>
+        <v>0.4199366844104482</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.2124832806533511</v>
+        <v>0.2034626025494561</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.09515376183902088</v>
+        <v>-0.1069628100938222</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.04663436311801786</v>
+        <v>-0.03928383240104923</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1346708181380385</v>
+        <v>0.1415605058606426</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.04045568399078332</v>
+        <v>0.001669818261825798</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.2761000399487201</v>
+        <v>0.2880837998448437</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2477575285750943</v>
+        <v>0.243820131713942</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.04179738524582795</v>
+        <v>0.03364340973328352</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2155213052866881</v>
+        <v>0.2214832660184391</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>1.229889945317459</v>
+        <v>1.121544366587288</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.5566620406991268</v>
+        <v>0.6017650601530017</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6184268313685848</v>
+        <v>0.6332340241842437</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7343612616822035</v>
+        <v>0.7540316046217568</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5974755440327778</v>
+        <v>0.5696958290881661</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.811684191791479</v>
+        <v>0.8491343700758575</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7580628360590183</v>
+        <v>0.7290435152688129</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.4766863514542343</v>
+        <v>0.4511849865399991</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.6593249768549839</v>
+        <v>0.6798490499756523</v>
       </c>
     </row>
     <row r="58">
